--- a/results/R_gene_lists/d14_FRC_subtype_ova_markers.xlsx
+++ b/results/R_gene_lists/d14_FRC_subtype_ova_markers.xlsx
@@ -6,12 +6,12 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="neg-CD34+SC" r:id="rId3" sheetId="1"/>
-    <sheet name="pos-CD34+SC" r:id="rId4" sheetId="2"/>
-    <sheet name="neg-Nr4a1+SC" r:id="rId5" sheetId="3"/>
-    <sheet name="pos-Nr4a1+SC" r:id="rId6" sheetId="4"/>
-    <sheet name="neg-unassigned" r:id="rId7" sheetId="5"/>
-    <sheet name="pos-FDC" r:id="rId8" sheetId="6"/>
+    <sheet name="low-CD34+SC" r:id="rId3" sheetId="1"/>
+    <sheet name="high-CD34+SC" r:id="rId4" sheetId="2"/>
+    <sheet name="low-Nr4a1+SC" r:id="rId5" sheetId="3"/>
+    <sheet name="high-Nr4a1+SC" r:id="rId6" sheetId="4"/>
+    <sheet name="high-unassigned" r:id="rId7" sheetId="5"/>
+    <sheet name="high-FDC" r:id="rId8" sheetId="6"/>
   </sheets>
 </workbook>
 </file>
@@ -169,7 +169,7 @@
     <t>42</t>
   </si>
   <si>
-    <t>neg-CD34+SC</t>
+    <t>low-CD34+SC</t>
   </si>
   <si>
     <t>Emp3</t>
@@ -382,7 +382,7 @@
     <t>69</t>
   </si>
   <si>
-    <t>pos-CD34+SC</t>
+    <t>high-CD34+SC</t>
   </si>
   <si>
     <t>Mmrn1</t>
@@ -724,7 +724,7 @@
     <t>113</t>
   </si>
   <si>
-    <t>neg-Nr4a1+SC</t>
+    <t>low-Nr4a1+SC</t>
   </si>
   <si>
     <t>Dcn</t>
@@ -1339,7 +1339,7 @@
     <t>226</t>
   </si>
   <si>
-    <t>pos-Nr4a1+SC</t>
+    <t>high-Nr4a1+SC</t>
   </si>
   <si>
     <t>Cfd</t>
@@ -1993,7 +1993,7 @@
     <t>Dgat1</t>
   </si>
   <si>
-    <t>neg-unassigned</t>
+    <t>high-unassigned</t>
   </si>
   <si>
     <t>Hspbap1</t>
@@ -2344,7 +2344,7 @@
     <t>unassigned</t>
   </si>
   <si>
-    <t>pos-FDC</t>
+    <t>high-FDC</t>
   </si>
   <si>
     <t>D2hgdh</t>
